--- a/SchedulingData/dynamic9/pso/scheduling2_19.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling2_19.xlsx
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>230.08</v>
+        <v>243.64</v>
       </c>
       <c r="D2" t="n">
-        <v>285.38</v>
+        <v>295.98</v>
       </c>
       <c r="E2" t="n">
-        <v>12.172</v>
+        <v>12.072</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>202.4</v>
+        <v>231.22</v>
       </c>
       <c r="D3" t="n">
-        <v>270.3</v>
+        <v>284.94</v>
       </c>
       <c r="E3" t="n">
-        <v>14.46</v>
+        <v>12.636</v>
       </c>
     </row>
     <row r="4">
@@ -504,36 +504,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>270.3</v>
+        <v>257.14</v>
       </c>
       <c r="D4" t="n">
-        <v>371.6</v>
+        <v>312.14</v>
       </c>
       <c r="E4" t="n">
-        <v>11.4</v>
+        <v>10.976</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>264.66</v>
+        <v>231.54</v>
       </c>
       <c r="D5" t="n">
-        <v>348.54</v>
+        <v>275.12</v>
       </c>
       <c r="E5" t="n">
-        <v>8.736000000000001</v>
+        <v>11.148</v>
       </c>
     </row>
     <row r="6">
@@ -542,169 +542,169 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>230.6</v>
+        <v>284.94</v>
       </c>
       <c r="D6" t="n">
-        <v>295</v>
+        <v>322.7</v>
       </c>
       <c r="E6" t="n">
-        <v>11.64</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>348.54</v>
+        <v>244.06</v>
       </c>
       <c r="D7" t="n">
-        <v>384.04</v>
+        <v>301.12</v>
       </c>
       <c r="E7" t="n">
-        <v>6.316</v>
+        <v>10.028</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>266.66</v>
+        <v>275.12</v>
       </c>
       <c r="D8" t="n">
-        <v>308.86</v>
+        <v>325.32</v>
       </c>
       <c r="E8" t="n">
-        <v>11.784</v>
+        <v>8.728</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>285.38</v>
+        <v>301.12</v>
       </c>
       <c r="D9" t="n">
-        <v>334.66</v>
+        <v>343.82</v>
       </c>
       <c r="E9" t="n">
-        <v>9.364000000000001</v>
+        <v>7.868</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>334.66</v>
+        <v>312.14</v>
       </c>
       <c r="D10" t="n">
-        <v>376.78</v>
+        <v>362.92</v>
       </c>
       <c r="E10" t="n">
-        <v>6.772</v>
+        <v>8.007999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>241.42</v>
+        <v>201.12</v>
       </c>
       <c r="D11" t="n">
-        <v>281.84</v>
+        <v>250.92</v>
       </c>
       <c r="E11" t="n">
-        <v>13.436</v>
+        <v>15.408</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>308.86</v>
+        <v>250.92</v>
       </c>
       <c r="D12" t="n">
-        <v>352.1</v>
+        <v>284.62</v>
       </c>
       <c r="E12" t="n">
-        <v>9.08</v>
+        <v>13.168</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>295</v>
+        <v>284.62</v>
       </c>
       <c r="D13" t="n">
-        <v>342.7</v>
+        <v>330.04</v>
       </c>
       <c r="E13" t="n">
-        <v>9.48</v>
+        <v>10.256</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>342.7</v>
+        <v>343.82</v>
       </c>
       <c r="D14" t="n">
-        <v>383.68</v>
+        <v>392.58</v>
       </c>
       <c r="E14" t="n">
-        <v>6.512</v>
+        <v>5.112</v>
       </c>
     </row>
     <row r="15">
@@ -713,74 +713,74 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>281.84</v>
+        <v>295.98</v>
       </c>
       <c r="D15" t="n">
-        <v>320.54</v>
+        <v>343.1</v>
       </c>
       <c r="E15" t="n">
-        <v>11.196</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>384.04</v>
+        <v>343.1</v>
       </c>
       <c r="D16" t="n">
-        <v>432.7</v>
+        <v>387.38</v>
       </c>
       <c r="E16" t="n">
-        <v>3.56</v>
+        <v>6.672</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>320.54</v>
+        <v>322.7</v>
       </c>
       <c r="D17" t="n">
-        <v>377.9</v>
+        <v>365.94</v>
       </c>
       <c r="E17" t="n">
-        <v>8.06</v>
+        <v>6.796</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>352.1</v>
+        <v>325.32</v>
       </c>
       <c r="D18" t="n">
-        <v>426.5</v>
+        <v>362.32</v>
       </c>
       <c r="E18" t="n">
-        <v>6.22</v>
+        <v>5.668</v>
       </c>
     </row>
   </sheetData>
